--- a/template_pegase_v1/histochemistry.xlsx
+++ b/template_pegase_v1/histochemistry.xlsx
@@ -12,57 +12,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
-  <si>
-    <t>numbermeasuringfield</t>
-  </si>
-  <si>
-    <t>channelarea</t>
-  </si>
-  <si>
-    <t>dyereference</t>
-  </si>
-  <si>
-    <t>organelleidentification</t>
-  </si>
-  <si>
-    <t>magnification</t>
-  </si>
-  <si>
-    <t>picturenumber</t>
-  </si>
-  <si>
-    <t>secretorycellarea</t>
-  </si>
-  <si>
-    <t>adiposecellarea</t>
-  </si>
-  <si>
-    <t>fixation</t>
-  </si>
-  <si>
-    <t>embedding</t>
-  </si>
-  <si>
-    <t>resulttotalarea</t>
-  </si>
-  <si>
-    <t>slicesize</t>
-  </si>
-  <si>
-    <t>pictureresolution</t>
-  </si>
-  <si>
-    <t>dye</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
+    <t>Embedding</t>
+  </si>
+  <si>
+    <t>Fixation</t>
+  </si>
+  <si>
+    <t>SliceSize</t>
+  </si>
+  <si>
+    <t>Magnification</t>
+  </si>
+  <si>
+    <t>PictureResolution</t>
+  </si>
+  <si>
+    <t>NumberMeasuringField</t>
+  </si>
+  <si>
+    <t>PictureNumber</t>
+  </si>
+  <si>
+    <t>OrganelleIdentification</t>
+  </si>
+  <si>
+    <t>Dye</t>
+  </si>
+  <si>
+    <t>DyeReference</t>
+  </si>
+  <si>
+    <t>ResultTotalArea</t>
+  </si>
+  <si>
+    <t>SecretoryCellArea</t>
+  </si>
+  <si>
+    <t>AdiposeCellArea</t>
+  </si>
+  <si>
+    <t>ChannelArea</t>
+  </si>
+  <si>
+    <t>#string</t>
+  </si>
+  <si>
+    <t>#date</t>
   </si>
   <si>
     <t>#integer</t>
   </si>
   <si>
     <t>#float</t>
-  </si>
-  <si>
-    <t>#string</t>
   </si>
 </sst>
 </file>
@@ -107,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,49 +180,91 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/histochemistry.xlsx
+++ b/template_pegase_v1/histochemistry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>Operator</t>
   </si>
@@ -23,6 +23,12 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Dye</t>
+  </si>
+  <si>
+    <t>DyeReference</t>
+  </si>
+  <si>
     <t>LaboratoryOperatingMode</t>
   </si>
   <si>
@@ -59,21 +65,27 @@
     <t>OrganelleIdentification</t>
   </si>
   <si>
-    <t>Dye</t>
-  </si>
-  <si>
-    <t>DyeReference</t>
+    <t>TotalAreaThreshold</t>
   </si>
   <si>
     <t>ResultTotalArea</t>
   </si>
   <si>
+    <t>SecetoryCellTreshold</t>
+  </si>
+  <si>
     <t>SecretoryCellArea</t>
   </si>
   <si>
+    <t>AdiposeCellTreshold</t>
+  </si>
+  <si>
     <t>AdiposeCellArea</t>
   </si>
   <si>
+    <t>ChannelTreshold</t>
+  </si>
+  <si>
     <t>ChannelArea</t>
   </si>
   <si>
@@ -83,10 +95,97 @@
     <t>#date</t>
   </si>
   <si>
+    <t>#integer,  unit:µm</t>
+  </si>
+  <si>
+    <t>#float</t>
+  </si>
+  <si>
+    <t>#integer,  unit:pixel/µm</t>
+  </si>
+  <si>
     <t>#integer</t>
   </si>
   <si>
-    <t>#float</t>
+    <t>#float,  unit:µm²</t>
+  </si>
+  <si>
+    <t>#integer,  unit:µm²</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#Colorant</t>
+  </si>
+  <si>
+    <t>#ReferenceColorant</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t>#Inclusion</t>
+  </si>
+  <si>
+    <t>#Fixation</t>
+  </si>
+  <si>
+    <t>#EpaisseurCoupe</t>
+  </si>
+  <si>
+    <t>#Grossissement</t>
+  </si>
+  <si>
+    <t>#ResolutionImage</t>
+  </si>
+  <si>
+    <t>#NumeroChampMesure</t>
+  </si>
+  <si>
+    <t>#MumeroImage</t>
+  </si>
+  <si>
+    <t>#NomOrganite</t>
+  </si>
+  <si>
+    <t>#SeuilSurfaceTotale</t>
+  </si>
+  <si>
+    <t>#SurfaceTotale</t>
+  </si>
+  <si>
+    <t>#SeuilCellulesSecretrices</t>
+  </si>
+  <si>
+    <t>#SurfaceCellulesSecretrices</t>
+  </si>
+  <si>
+    <t>#SeuilCellulesAdipeuses</t>
+  </si>
+  <si>
+    <t>#SurfaceCellulesAdipeuses</t>
+  </si>
+  <si>
+    <t>#SeuilCanaux</t>
+  </si>
+  <si>
+    <t>#SurfaceCanaux</t>
   </si>
 </sst>
 </file>
@@ -131,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -201,70 +300,171 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/histochemistry.xlsx
+++ b/template_pegase_v1/histochemistry.xlsx
@@ -14,33 +14,33 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
+    <t>Dye</t>
+  </si>
+  <si>
+    <t>DyeReference</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Dye</t>
-  </si>
-  <si>
-    <t>DyeReference</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>Embedding</t>
   </si>
   <si>
@@ -113,31 +113,31 @@
     <t>#integer,  unit:µm²</t>
   </si>
   <si>
+    <t>#Colorant</t>
+  </si>
+  <si>
+    <t>#ReferenceColorant</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Colorant</t>
-  </si>
-  <si>
-    <t>#ReferenceColorant</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t>#Inclusion</t>

--- a/template_pegase_v1/histochemistry.xlsx
+++ b/template_pegase_v1/histochemistry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>Dye</t>
   </si>
@@ -32,7 +32,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -89,6 +92,9 @@
     <t>ChannelArea</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
@@ -119,25 +125,28 @@
     <t>#ReferenceColorant</t>
   </si>
   <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
   </si>
   <si>
     <t>#Inclusion</t>
@@ -186,6 +195,9 @@
   </si>
   <si>
     <t>#SurfaceCanaux</t>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -230,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -312,159 +324,177 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
         <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/histochemistry.xlsx
+++ b/template_pegase_v1/histochemistry.xlsx
@@ -12,21 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
-  <si>
-    <t>Dye</t>
-  </si>
-  <si>
-    <t>DyeReference</t>
-  </si>
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
+  <si>
+    <t>AnalysisDate</t>
   </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
-    <t>LaboratoryOperatingMode</t>
+    <t>LaboratoryOperatingModeCode</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingModeName</t>
   </si>
   <si>
     <t>CriticalApparatusCriticalSoftware</t>
@@ -44,6 +41,9 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Embedding</t>
   </si>
   <si>
@@ -59,15 +59,15 @@
     <t>PictureResolution</t>
   </si>
   <si>
-    <t>NumberMeasuringField</t>
-  </si>
-  <si>
-    <t>PictureNumber</t>
+    <t>PictureName</t>
   </si>
   <si>
     <t>OrganelleIdentification</t>
   </si>
   <si>
+    <t>AreaUnit</t>
+  </si>
+  <si>
     <t>TotalAreaThreshold</t>
   </si>
   <si>
@@ -92,112 +92,207 @@
     <t>ChannelArea</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t># Date de l'analyse</t>
+  </si>
+  <si>
+    <t># Manipulateur</t>
+  </si>
+  <si>
+    <t># Code Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Nom Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Appareil ou logiciel critique</t>
+  </si>
+  <si>
+    <t># Fournisseur et ref.  produits critiques</t>
+  </si>
+  <si>
+    <t># Numéro de lot produits critiques</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes.</t>
+  </si>
+  <si>
+    <t># Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Commentaire</t>
+  </si>
+  <si>
+    <t># Type d'inclusion</t>
+  </si>
+  <si>
+    <t># Type de fixation</t>
+  </si>
+  <si>
+    <t># Epaisseur de la coupe</t>
+  </si>
+  <si>
+    <t># Grossissement</t>
+  </si>
+  <si>
+    <t># Resolution de l'image (pixel/µm)</t>
+  </si>
+  <si>
+    <t># Nom de l'image</t>
+  </si>
+  <si>
+    <t># Nom de l'organite</t>
+  </si>
+  <si>
+    <t># Unité de mesure des surfaces</t>
+  </si>
+  <si>
+    <t># Seuil de surface totale</t>
+  </si>
+  <si>
+    <t># Surface totale</t>
+  </si>
+  <si>
+    <t># Seuil cellules sécrétrices</t>
+  </si>
+  <si>
+    <t># Surface de cellules sécrétrices</t>
+  </si>
+  <si>
+    <t># Seuil cellules adipeuses</t>
+  </si>
+  <si>
+    <t># Surface de cellules adipeuses</t>
+  </si>
+  <si>
+    <t># Seuil canaux</t>
+  </si>
+  <si>
+    <t># Surface de canaux</t>
+  </si>
+  <si>
+    <t>#date</t>
   </si>
   <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
-    <t>#integer,  unit:µm</t>
+    <t>#integer,
+  unit:µm</t>
   </si>
   <si>
     <t>#float</t>
   </si>
   <si>
-    <t>#integer,  unit:pixel/µm</t>
+    <t>#integer,
+  unit:pixel/µm</t>
   </si>
   <si>
     <t>#integer</t>
   </si>
   <si>
-    <t>#float,  unit:µm²</t>
-  </si>
-  <si>
-    <t>#integer,  unit:µm²</t>
-  </si>
-  <si>
-    <t>#Colorant</t>
-  </si>
-  <si>
-    <t>#ReferenceColorant</t>
-  </si>
-  <si>
-    <t>#Date format jj/mm/aaa</t>
-  </si>
-  <si>
-    <t>#Manipulateur (LDAP)</t>
-  </si>
-  <si>
-    <t>#Mode Operatoire de Laboratoire (MOL)</t>
-  </si>
-  <si>
-    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t># Lieu de stockage des donnees brutes</t>
-  </si>
-  <si>
-    <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t>#Inclusion</t>
-  </si>
-  <si>
-    <t>#Fixation</t>
-  </si>
-  <si>
-    <t>#EpaisseurCoupe</t>
-  </si>
-  <si>
-    <t>#Grossissement</t>
-  </si>
-  <si>
-    <t>#ResolutionImage</t>
-  </si>
-  <si>
-    <t>#NumeroChampMesure</t>
-  </si>
-  <si>
-    <t>#MumeroImage</t>
-  </si>
-  <si>
-    <t>#NomOrganite</t>
-  </si>
-  <si>
-    <t>#SeuilSurfaceTotale</t>
-  </si>
-  <si>
-    <t>#SurfaceTotale</t>
-  </si>
-  <si>
-    <t>#SeuilCellulesSecretrices</t>
-  </si>
-  <si>
-    <t>#SurfaceCellulesSecretrices</t>
-  </si>
-  <si>
-    <t>#SeuilCellulesAdipeuses</t>
-  </si>
-  <si>
-    <t>#SurfaceCellulesAdipeuses</t>
-  </si>
-  <si>
-    <t>#SeuilCanaux</t>
-  </si>
-  <si>
-    <t>#SurfaceCanaux</t>
-  </si>
-  <si>
-    <t>#Commentaire</t>
+    <t># format:  jj/mm/aaa</t>
+  </si>
+  <si>
+    <t># format: texte, identifiant LDAP</t>
+  </si>
+  <si>
+    <t># format: texte, MO-LAB-XXX, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs appareils/logiciels utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer. Conserver le même ordre que dans la colonne Référence des produits.</t>
+  </si>
+  <si>
+    <t># format: texte</t>
+  </si>
+  <si>
+    <t># format: texte, à définir....</t>
+  </si>
+  <si>
+    <t># format: texte libre</t>
+  </si>
+  <si>
+    <t># format: nombre entier</t>
+  </si>
+  <si>
+    <t># format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t>#  format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t>#  format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># ex: 12/06/2019</t>
+  </si>
+  <si>
+    <t># ex: fherault</t>
+  </si>
+  <si>
+    <t># ex:  MO-LAB-029 ou MO-LAB-NA si pas de code</t>
+  </si>
+  <si>
+    <t># ex: Dosage du Glutathion dans les tissus</t>
+  </si>
+  <si>
+    <t># ex: Konélab20; appareil2; appareil3</t>
+  </si>
+  <si>
+    <t># ex: THERMO 981304;sCal 981831;Nortrol 981043;Abtrol 981044</t>
+  </si>
+  <si>
+    <t># ex : S415;G716;H342;H654</t>
+  </si>
+  <si>
+    <t># ex: //Konelab37/results/</t>
+  </si>
+  <si>
+    <t># ex: ....</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t># ex: Parafine</t>
+  </si>
+  <si>
+    <t># ex: ...</t>
+  </si>
+  <si>
+    <t># ex: 1 µm</t>
+  </si>
+  <si>
+    <t># ex: 10.0</t>
+  </si>
+  <si>
+    <t># ex: 250</t>
+  </si>
+  <si>
+    <t># ex:...</t>
+  </si>
+  <si>
+    <t># ex: mitochondrie</t>
+  </si>
+  <si>
+    <t># ex: µm²</t>
+  </si>
+  <si>
+    <t># ex: 25</t>
+  </si>
+  <si>
+    <t># ex:... ou NA</t>
   </si>
 </sst>
 </file>
@@ -242,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -327,13 +422,10 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -342,159 +434,313 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="X2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="Y2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" t="s">
         <v>55</v>
-      </c>
-      <c r="V3" t="s">
-        <v>56</v>
       </c>
       <c r="W3" t="s">
         <v>57</v>
       </c>
       <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="D4" t="s">
         <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W5" t="s">
+        <v>92</v>
+      </c>
+      <c r="X5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/histochemistry.xlsx
+++ b/template_pegase_v1/histochemistry.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>AnalysisDate</t>
   </si>
@@ -41,57 +41,60 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Embedding</t>
+  </si>
+  <si>
+    <t>Fixation</t>
+  </si>
+  <si>
+    <t>SliceSize</t>
+  </si>
+  <si>
+    <t>Magnification</t>
+  </si>
+  <si>
+    <t>PictureSize</t>
+  </si>
+  <si>
+    <t>PictureResolution</t>
+  </si>
+  <si>
+    <t>PictureName</t>
+  </si>
+  <si>
+    <t>OrganelleIdentification</t>
+  </si>
+  <si>
+    <t>AreaUnit</t>
+  </si>
+  <si>
+    <t>TotalAreaThreshold</t>
+  </si>
+  <si>
+    <t>ResultTotalArea</t>
+  </si>
+  <si>
+    <t>SecetoryCellTreshold</t>
+  </si>
+  <si>
+    <t>SecretoryCellArea</t>
+  </si>
+  <si>
+    <t>AdiposeCellTreshold</t>
+  </si>
+  <si>
+    <t>AdiposeCellArea</t>
+  </si>
+  <si>
+    <t>ChannelTreshold</t>
+  </si>
+  <si>
+    <t>ChannelArea</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Embedding</t>
-  </si>
-  <si>
-    <t>Fixation</t>
-  </si>
-  <si>
-    <t>SliceSize</t>
-  </si>
-  <si>
-    <t>Magnification</t>
-  </si>
-  <si>
-    <t>PictureResolution</t>
-  </si>
-  <si>
-    <t>PictureName</t>
-  </si>
-  <si>
-    <t>OrganelleIdentification</t>
-  </si>
-  <si>
-    <t>AreaUnit</t>
-  </si>
-  <si>
-    <t>TotalAreaThreshold</t>
-  </si>
-  <si>
-    <t>ResultTotalArea</t>
-  </si>
-  <si>
-    <t>SecetoryCellTreshold</t>
-  </si>
-  <si>
-    <t>SecretoryCellArea</t>
-  </si>
-  <si>
-    <t>AdiposeCellTreshold</t>
-  </si>
-  <si>
-    <t>AdiposeCellArea</t>
-  </si>
-  <si>
-    <t>ChannelTreshold</t>
-  </si>
-  <si>
-    <t>ChannelArea</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -119,55 +122,58 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t># Type d'inclusion</t>
+  </si>
+  <si>
+    <t># Type de fixation</t>
+  </si>
+  <si>
+    <t># Epaisseur de la coupe</t>
+  </si>
+  <si>
+    <t># Grossissement</t>
+  </si>
+  <si>
+    <t># Taille de l'image</t>
+  </si>
+  <si>
+    <t># Resolution de l'image (µm/pixel)</t>
+  </si>
+  <si>
+    <t># Nom de l'image</t>
+  </si>
+  <si>
+    <t># Nom de l'organite</t>
+  </si>
+  <si>
+    <t># Unité de mesure des surfaces</t>
+  </si>
+  <si>
+    <t># Seuil de surface totale</t>
+  </si>
+  <si>
+    <t># Surface totale</t>
+  </si>
+  <si>
+    <t># Seuil cellules sécrétrices</t>
+  </si>
+  <si>
+    <t># Surface de cellules sécrétrices</t>
+  </si>
+  <si>
+    <t># Seuil cellules adipeuses</t>
+  </si>
+  <si>
+    <t># Surface de cellules adipeuses</t>
+  </si>
+  <si>
+    <t># Seuil canaux</t>
+  </si>
+  <si>
+    <t># Surface de canaux</t>
+  </si>
+  <si>
     <t># Commentaire</t>
-  </si>
-  <si>
-    <t># Type d'inclusion</t>
-  </si>
-  <si>
-    <t># Type de fixation</t>
-  </si>
-  <si>
-    <t># Epaisseur de la coupe</t>
-  </si>
-  <si>
-    <t># Grossissement</t>
-  </si>
-  <si>
-    <t># Resolution de l'image (pixel/µm)</t>
-  </si>
-  <si>
-    <t># Nom de l'image</t>
-  </si>
-  <si>
-    <t># Nom de l'organite</t>
-  </si>
-  <si>
-    <t># Unité de mesure des surfaces</t>
-  </si>
-  <si>
-    <t># Seuil de surface totale</t>
-  </si>
-  <si>
-    <t># Surface totale</t>
-  </si>
-  <si>
-    <t># Seuil cellules sécrétrices</t>
-  </si>
-  <si>
-    <t># Surface de cellules sécrétrices</t>
-  </si>
-  <si>
-    <t># Seuil cellules adipeuses</t>
-  </si>
-  <si>
-    <t># Surface de cellules adipeuses</t>
-  </si>
-  <si>
-    <t># Seuil canaux</t>
-  </si>
-  <si>
-    <t># Surface de canaux</t>
   </si>
   <si>
     <t>#date</t>
@@ -184,7 +190,7 @@
   </si>
   <si>
     <t>#integer,
-  unit:pixel/µm</t>
+  unit:µm/pixel</t>
   </si>
   <si>
     <t>#integer</t>
@@ -217,24 +223,30 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
+    <t># format: nombre entier</t>
+  </si>
+  <si>
+    <t># format: nombre entier, ne pas spécifier l'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal</t>
+  </si>
+  <si>
+    <t># format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t>#  format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t>#  format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
     <t># format: texte libre</t>
   </si>
   <si>
-    <t># format: nombre entier</t>
-  </si>
-  <si>
-    <t># format: nombre entier, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: nombre décimal, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t>#  format: nombre entier, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t>#  format: nombre décimal, ne pas spécifier d'unité</t>
-  </si>
-  <si>
     <t># ex: 12/06/2019</t>
   </si>
   <si>
@@ -262,37 +274,43 @@
     <t># ex: ....</t>
   </si>
   <si>
+    <t># ex: Parafine</t>
+  </si>
+  <si>
+    <t># ex: Paraformaldehyde</t>
+  </si>
+  <si>
+    <t># ex: 1 µm</t>
+  </si>
+  <si>
+    <t># ex: 10.0</t>
+  </si>
+  <si>
+    <t># ex: 250</t>
+  </si>
+  <si>
+    <t># ex: 0.33</t>
+  </si>
+  <si>
+    <t># ex: ch5138N1</t>
+  </si>
+  <si>
+    <t># ex: mitochondrie</t>
+  </si>
+  <si>
+    <t># ex: µm²</t>
+  </si>
+  <si>
+    <t># ex: 25</t>
+  </si>
+  <si>
+    <t># ex: ...</t>
+  </si>
+  <si>
+    <t># ex:... ou NA</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t># ex: Parafine</t>
-  </si>
-  <si>
-    <t># ex: ...</t>
-  </si>
-  <si>
-    <t># ex: 1 µm</t>
-  </si>
-  <si>
-    <t># ex: 10.0</t>
-  </si>
-  <si>
-    <t># ex: 250</t>
-  </si>
-  <si>
-    <t># ex:...</t>
-  </si>
-  <si>
-    <t># ex: mitochondrie</t>
-  </si>
-  <si>
-    <t># ex: µm²</t>
-  </si>
-  <si>
-    <t># ex: 25</t>
-  </si>
-  <si>
-    <t># ex:... ou NA</t>
   </si>
 </sst>
 </file>
@@ -337,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -422,325 +440,340 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
         <v>57</v>
       </c>
-      <c r="T3" t="s">
-        <v>55</v>
-      </c>
       <c r="U3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" t="s">
         <v>57</v>
       </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
       <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
         <v>57</v>
       </c>
-      <c r="X3" t="s">
-        <v>55</v>
-      </c>
       <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
         <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="R5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="T5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="U5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="V5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="W5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Z5" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
